--- a/imageCreationExcel/back/110/110_1.xlsx
+++ b/imageCreationExcel/back/110/110_1.xlsx
@@ -486,24 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.99631410670759</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9101182778393093</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6092206466450067</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_B_brightness15.996_contrast0.91_sharpness0.609.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,30 +537,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27.0391129470044</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6602828274918251</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4256038686218601</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_3_brightness27.039_gamma0.66_sharpness0.426.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.49442143212658</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.149846562499435</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.098044774728465</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_0_brightness13.494_contrast1.15_gamma1.098.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.061564591001853</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5116130381208541</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>25.96542752868092</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_P_contrast1.062_gamma0.512_equalization25.965.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.188466286101145</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9202273322783396</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.833911751433334</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_7_contrast1.188_gamma0.92_equalization8.834.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,30 +705,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8656898691137793</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.0441763888131</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.084791166868708</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_9_brightness0.866_contrast1.044_gamma1.085.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -747,15 +747,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.037230920375076</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.1372999496003545</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>14.96260010579681</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_8_contrast1.037_sharpness0.137_equalization14.963.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19.49583158682596</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.133718009687428</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.4491447301096019</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_C_brightness19.496_contrast1.134_sharpness0.449.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.33281686185888</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5055344638441852</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.6263043074710446</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_3_brightness12.333_gamma0.506_sharpness0.626.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,15 +873,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24.24847864741017</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5323132836570202</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.4602739605448192</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_8_brightness24.248_gamma0.532_sharpness0.46.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24.12356444765339</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.076329409699036</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9877072774155178</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_9_brightness24.124_contrast1.076_gamma0.988.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -953,34 +953,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20.88521980611793</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9870267860523151</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2611337017735864</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_2_brightness20.885_gamma0.987_sharpness0.261.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5.042455365348022</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9018435371517919</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7007897050039917</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_P_brightness5.042_contrast0.902_sharpness0.701.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16.89522677647044</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.6029501768833759</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8635673821252468</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_E_brightness16.895_gamma0.603_sharpness0.864.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9179731733488723</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8263054257701006</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.4115429915656988</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_3_contrast0.918_gamma0.826_sharpness0.412.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.056766099164592</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.4350578026372501</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>21.4882442191503</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_B_contrast1.057_sharpness0.435_equalization21.488.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13.29333855805187</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5851649777003775</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6365484545090419</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_8_brightness13.293_gamma0.585_sharpness0.637.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.855368925612834</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.03448993296933</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8911466746806423</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_9_brightness1.855_gamma1.034_sharpness0.891.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,15 +1251,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.129549093764837</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.023731501176235</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.1914544936624797</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_8_brightness4.13_contrast1.024_sharpness0.191.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25.22425476360169</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9185532353420127</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.9146098679891927</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_1_brightness25.224_contrast0.919_sharpness0.915.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12.02062042808549</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5135667137847052</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.2040618049938139</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_T_brightness12.021_gamma0.514_sharpness0.204.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1373,34 +1373,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.045043855831891</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.7970277528520817</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>28.30900260883793</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_8_gamma1.045_sharpness0.797_equalization28.309.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9.902146727945363</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5665650673752805</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.7989108759751622</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_8_brightness9.902_gamma0.567_sharpness0.799.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,15 +1461,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15.98541555498488</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.029092491471891</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.3375615059964493</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_I_brightness15.985_contrast1.029_sharpness0.338.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,15 +1503,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.182639047496901</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8319018132729482</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>28.94076196628735</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_S_contrast1.183_gamma0.832_equalization28.941.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8508794753572727</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.2169025578964505</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>14.19735929421957</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_1_gamma0.851_sharpness0.217_equalization14.197.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8761095905600784</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8105972721704255</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.2011586167737655</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_E_contrast0.876_gamma0.811_sharpness0.201.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.038639260777549</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.012210923425226</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8.78155593911117</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_I_contrast1.039_gamma1.012_equalization8.782.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.852943237148499</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.7718492118665807</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>19.81054010531284</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_P_contrast0.853_gamma0.772_equalization19.811.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8327023872800661</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9270797260214561</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>15.76849564564437</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_B_contrast0.833_sharpness0.927_equalization15.768.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18.38937282602199</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8579806492707734</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.8978611698174972</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_P_brightness18.389_gamma0.858_sharpness0.898.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,16 +1788,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9355493176889595</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.7034889598409578</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.789385105063114</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_P_brightness0.936_gamma0.703_sharpness0.789.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.497136143879815</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9677107962572178</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.4849358567589642</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_7_brightness4.497_contrast0.968_sharpness0.485.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9099928320086099</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5946824232781129</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>14.73973458826243</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_0_contrast0.91_sharpness0.595_equalization14.74.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>21.55187108154087</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.6159368563940137</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.7270618070162898</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_C_brightness21.552_gamma0.616_sharpness0.727.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12.75664016657981</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.7042982285332354</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.1741819746606591</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_3_brightness12.757_gamma0.704_sharpness0.174.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9659079699619529</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6477457219427946</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.8571696232328619</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_3_contrast0.966_gamma0.648_sharpness0.857.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,15 +2049,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>16.67869200493448</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.688641989632243</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.02788884985441445</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_1_brightness16.679_gamma0.689_sharpness0.028.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8867166240237867</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8332809031550488</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>31.45834728035777</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_7_gamma0.887_sharpness0.833_equalization31.458.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.009040546336096</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7423015544098002</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>11.87303847064761</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_8_gamma1.009_sharpness0.742_equalization11.873.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>11.84562007689419</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.185025796299424</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.8983067383449403</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_S_brightness11.846_contrast1.185_sharpness0.898.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4.119988012654307</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,22 +2225,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9503388981047536</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.8030712835856699</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_E_brightness4.12_contrast0.95_gamma0.803.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.016424273317224</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.574726292994882</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.4878479784498072</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_2_contrast1.016_gamma0.575_sharpness0.488.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>28.21919448945494</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.165520980644382</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.6517734754912061</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_C_brightness28.219_contrast1.166_gamma0.652.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,16 +2334,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.12284413190328</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.3647657205178277</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>24.23304240087158</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_0_contrast1.123_sharpness0.365_equalization24.233.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2381,34 +2381,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>27.94580832391903</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.061605568694789</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.573112339654319</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_B_brightness27.946_contrast1.062_sharpness0.573.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.010847914574827</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8366016708208318</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8.910532574300955</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_0_contrast1.011_gamma0.837_equalization8.911.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28.49139688470788</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9448597697901173</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1.08499230947023</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_1_brightness28.491_contrast0.945_gamma1.085.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
